--- a/simple2fjsp/论文结果对比.xlsx
+++ b/simple2fjsp/论文结果对比.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="MK" sheetId="2" r:id="rId1"/>
@@ -1021,7 +1021,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1030,6 +1030,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1344,7 +1347,7 @@
   <sheetPr/>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
@@ -15766,10 +15769,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37:O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -15778,6 +15781,7 @@
     <col min="8" max="8" width="11.7777777777778"/>
     <col min="12" max="12" width="12.8888888888889"/>
     <col min="14" max="14" width="10" style="1" customWidth="1"/>
+    <col min="17" max="19" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -15819,7 +15823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
         <v>71</v>
       </c>
@@ -15863,8 +15867,15 @@
         <f t="shared" ref="N2:N41" si="0">AVERAGE(B2,F2,J2)</f>
         <v>585.333333333333</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="3">
+        <v>513.666666666667</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
         <v>72</v>
       </c>
@@ -15908,8 +15919,13 @@
         <f t="shared" si="0"/>
         <v>552.333333333333</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="3"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
         <v>73</v>
       </c>
@@ -15953,8 +15969,13 @@
         <f t="shared" si="0"/>
         <v>492.666666666667</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="3"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="2" t="s">
         <v>74</v>
       </c>
@@ -15998,8 +16019,13 @@
         <f t="shared" si="0"/>
         <v>519</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="3"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -16043,8 +16069,13 @@
         <f t="shared" si="0"/>
         <v>470.666666666667</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="3"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>76</v>
       </c>
@@ -16088,8 +16119,11 @@
         <f t="shared" si="0"/>
         <v>809.666666666667</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="3">
+        <v>803.533333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>77</v>
       </c>
@@ -16133,8 +16167,9 @@
         <f t="shared" si="0"/>
         <v>762.333333333333</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>78</v>
       </c>
@@ -16178,8 +16213,9 @@
         <f t="shared" si="0"/>
         <v>770</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
@@ -16223,8 +16259,9 @@
         <f t="shared" si="0"/>
         <v>866.333333333333</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
         <v>80</v>
       </c>
@@ -16268,8 +16305,9 @@
         <f t="shared" si="0"/>
         <v>809.333333333333</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>81</v>
       </c>
@@ -16313,8 +16351,11 @@
         <f t="shared" si="0"/>
         <v>1079.33333333333</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="3">
+        <v>1048.13333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
         <v>82</v>
       </c>
@@ -16358,8 +16399,9 @@
         <f t="shared" si="0"/>
         <v>942</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
         <v>83</v>
       </c>
@@ -16403,8 +16445,9 @@
         <f t="shared" si="0"/>
         <v>1045.66666666667</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
         <v>84</v>
       </c>
@@ -16448,8 +16491,9 @@
         <f t="shared" si="0"/>
         <v>1078.66666666667</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
         <v>85</v>
       </c>
@@ -16493,8 +16537,9 @@
         <f t="shared" si="0"/>
         <v>1095</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
         <v>86</v>
       </c>
@@ -16538,8 +16583,11 @@
         <f t="shared" si="0"/>
         <v>722</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="3">
+        <v>682.666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
         <v>87</v>
       </c>
@@ -16583,8 +16631,9 @@
         <f t="shared" si="0"/>
         <v>648</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
         <v>88</v>
       </c>
@@ -16628,8 +16677,9 @@
         <f t="shared" si="0"/>
         <v>664.333333333333</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
         <v>89</v>
       </c>
@@ -16673,8 +16723,9 @@
         <f t="shared" si="0"/>
         <v>622</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
         <v>90</v>
       </c>
@@ -16718,8 +16769,9 @@
         <f t="shared" si="0"/>
         <v>757</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
         <v>91</v>
       </c>
@@ -16763,8 +16815,11 @@
         <f t="shared" si="0"/>
         <v>811</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="3">
+        <v>792.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
@@ -16808,8 +16863,9 @@
         <f t="shared" si="0"/>
         <v>756.666666666667</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
         <v>93</v>
       </c>
@@ -16853,8 +16909,9 @@
         <f t="shared" si="0"/>
         <v>833</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
         <v>94</v>
       </c>
@@ -16898,8 +16955,9 @@
         <f t="shared" si="0"/>
         <v>789</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
         <v>95</v>
       </c>
@@ -16943,8 +17001,9 @@
         <f t="shared" si="0"/>
         <v>773.333333333333</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
         <v>96</v>
       </c>
@@ -16988,8 +17047,11 @@
         <f t="shared" si="0"/>
         <v>1059.66666666667</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" s="3">
+        <v>1064.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
         <v>97</v>
       </c>
@@ -17033,8 +17095,9 @@
         <f t="shared" si="0"/>
         <v>1094.66666666667</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
         <v>98</v>
       </c>
@@ -17078,8 +17141,9 @@
         <f t="shared" si="0"/>
         <v>1079.33333333333</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
         <v>99</v>
       </c>
@@ -17123,8 +17187,9 @@
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
         <v>100</v>
       </c>
@@ -17168,8 +17233,9 @@
         <f t="shared" si="0"/>
         <v>1082.33333333333</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
         <v>101</v>
       </c>
@@ -17213,8 +17279,12 @@
         <f t="shared" si="0"/>
         <v>1525</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32" s="3">
+        <v>1556</v>
+      </c>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
         <v>102</v>
       </c>
@@ -17258,8 +17328,10 @@
         <f t="shared" si="0"/>
         <v>1672.33333333333</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33" s="3"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
@@ -17303,8 +17375,10 @@
         <f t="shared" si="0"/>
         <v>1510.33333333333</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34" s="3"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
@@ -17348,8 +17422,10 @@
         <f t="shared" si="0"/>
         <v>1542.33333333333</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35" s="3"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="2" t="s">
         <v>105</v>
       </c>
@@ -17393,8 +17469,10 @@
         <f t="shared" si="0"/>
         <v>1558</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36" s="3"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="2" t="s">
         <v>106</v>
       </c>
@@ -17438,8 +17516,11 @@
         <f t="shared" si="0"/>
         <v>952.333333333333</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37" s="3">
+        <v>961.066666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
         <v>107</v>
       </c>
@@ -17483,8 +17564,9 @@
         <f t="shared" si="0"/>
         <v>999</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="2" t="s">
         <v>108</v>
       </c>
@@ -17528,8 +17610,9 @@
         <f t="shared" si="0"/>
         <v>949</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
         <v>109</v>
       </c>
@@ -17573,8 +17656,9 @@
         <f t="shared" si="0"/>
         <v>942.666666666667</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="2" t="s">
         <v>110</v>
       </c>
@@ -17618,8 +17702,19 @@
         <f t="shared" si="0"/>
         <v>962.333333333333</v>
       </c>
+      <c r="O41" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="O2:O6"/>
+    <mergeCell ref="O7:O11"/>
+    <mergeCell ref="O12:O16"/>
+    <mergeCell ref="O17:O21"/>
+    <mergeCell ref="O22:O26"/>
+    <mergeCell ref="O27:O31"/>
+    <mergeCell ref="O32:O36"/>
+    <mergeCell ref="O37:O41"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
